--- a/biology/Botanique/Crocus_vernus/Crocus_vernus.xlsx
+++ b/biology/Botanique/Crocus_vernus/Crocus_vernus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Crocus de Naples, Crocus de printemps ou Crocus printanier (Crocus vernus) est une plante herbacée de la famille des Iridaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante basse à corme, aux feuilles basales linéaires avec une strie longitudinale blanche, aux fleurs terminales solitaires, blanches ou violettes émergeant de spathes blanchâtres. Les anthères sont jaunes, le style, rouge orangé, est ramifié, plus long que les étamines (sauf chez la sous-espèce albiflorus).
 </t>
@@ -542,17 +556,19 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Organes reproducteurs[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Organes reproducteurs :
 Type d'inflorescence : fleur solitaire terminale
 Répartition des sexes : hermaphrodite
 Type de pollinisation : entomogame
 Période de floraison : février à mai
-Graine[1] :
+Graine :
 Type de fruit : capsule
 Mode de dissémination : barochore
-Habitat et répartition[1] :
+Habitat et répartition :
 Habitat type : voir les sous-espèces
 Aire de répartition : européen méridional.</t>
         </is>
@@ -582,11 +598,13 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Crocus vernus (L.) Hill subsp. albiflorus (Kit.) Asch. &amp; Graebn., des prairies ouest- et médio-européennes, mésohydriques, fauchées, subalpino-alpiennes, neutroclines, à petite fleur blanche à tube violet
 Crocus vernus (L.) Hill subsp. vernus, des prairies médio- et sudest-européennes, mésohydriques, fauchées, subalpines, à plus grande fleur violette
-L'hybride entre les deux sous-espèces est appelé Crocus vernus (L.) Hill nothosubsp. fritschii (Derganc) Govaerts[2]
+L'hybride entre les deux sous-espèces est appelé Crocus vernus (L.) Hill nothosubsp. fritschii (Derganc) Govaerts
 			Crocus vernus subsp. albiflorus dans un jardin de collection
 			Fleur de Crocus vernus subsp. albiflorus
 			Crocus vernus subsp. vernus dans les Apennins
@@ -619,18 +637,17 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon la World Checklist les plantes appelées Crocus vernus devraient être dorénavant réparties en trois sous-espèces différentes :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon la World Checklist les plantes appelées Crocus vernus devraient être dorénavant réparties en trois sous-espèces différentes :
 Crocus vernus subsp. albiflorus  (Kit. ex Schult.) Ces. (Syn. Crocus albiflorus Kit, Crocus pygmaeus Lojac.) devrait être dorénavant appelé Crocus caeruleus Weston.
 Crocus vernus subsp. vernus devrait être divisé en
 Crocus vernus (L.) Hill s.s. (Syn. Crocus napolitanus Loisel.) (Alpes orientales aux Carpates)
 Crocus heuffelianus Herb. (Est de la Hongrie aux Carpates)
 Crocus heuffelianus subsp. heuffelianus (Syn.Crocus exiguus Schur)
-Crocus heuffelianus subsp. scepusiensis (Rehmer &amp; Wol.) Dostál (Syn. Crocus scepusiensis (Rehmer &amp; Wol.) Borbás ex Kulcz.) (Ouest des Carpates)
-Note
-Plusieurs autres espèces printanières, dont Crocus flavus  Weston, ont été appelées Crocus vernus par divers auteurs. Cette synonymie, qui est source de confusion, est désormais à éviter.
-</t>
+Crocus heuffelianus subsp. scepusiensis (Rehmer &amp; Wol.) Dostál (Syn. Crocus scepusiensis (Rehmer &amp; Wol.) Borbás ex Kulcz.) (Ouest des Carpates)</t>
         </is>
       </c>
     </row>
@@ -655,10 +672,49 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs autres espèces printanières, dont Crocus flavus  Weston, ont été appelées Crocus vernus par divers auteurs. Cette synonymie, qui est source de confusion, est désormais à éviter.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Crocus_vernus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crocus_vernus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Cultivars à grande fleur</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les crocus de Hollande à grande fleur blanche, violette ou striée sont des sélections de Crocus vernus subsp. vernus. Le crocus à grande fleur jaune est un triploïde stérile dérivé de Crocus flavus.
 			'Remembrance' à fleur violette
